--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxCheque.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxCheque.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C4CA5-CF69-4EBF-AFA1-A9118AFD4F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7575" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,15 @@
     <sheet name="提回檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,7 +443,7 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:ChequeStatusCode
+    <t>CdCode.ChequeStatusCode
 0:未處理
 1:兌現
 2:退票
@@ -443,23 +453,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:OutsideCode
-1.本埠
-2.外埠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
+    <t>CdCode.OutsideCode
+1:本埠
+2:外埠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -791,7 +801,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,6 +892,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -917,6 +944,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1092,22 +1136,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="4" max="4" width="15.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1138,7 +1182,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="33">
+    <row r="3" spans="1:7" ht="32.4">
       <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="115.5">
+    <row r="15" spans="1:7" ht="113.4">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1430,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="33">
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1450,7 +1494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="49.5">
+    <row r="22" spans="1:7" ht="48.6">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1589,7 +1633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="66">
+    <row r="30" spans="1:7" ht="64.8">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -1694,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1702,10 +1746,10 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1729,26 +1773,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+    <row r="1" spans="1:8" ht="16.8" thickBot="1">
       <c r="A1" s="30" t="s">
         <v>84</v>
       </c>
@@ -1825,7 +1869,7 @@
       </c>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31.2">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -1966,5 +2010,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>